--- a/upload/format_siswa.xlsx
+++ b/upload/format_siswa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">NO</t>
   </si>
@@ -34,10 +34,7 @@
     <t xml:space="preserve">NIS *</t>
   </si>
   <si>
-    <t xml:space="preserve">KELAS *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WALI KELAS</t>
+    <t xml:space="preserve">NO TELP *</t>
   </si>
   <si>
     <t xml:space="preserve">JENIS KELAMIN *</t>
@@ -49,25 +46,19 @@
     <t xml:space="preserve">ALAMAT</t>
   </si>
   <si>
-    <t xml:space="preserve">NO TELEPON *</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASSWORD</t>
   </si>
   <si>
     <t xml:space="preserve">Yoyo</t>
   </si>
   <si>
-    <t xml:space="preserve">yoyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X MIPA 2</t>
+    <t xml:space="preserve">dwako</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
   </si>
 </sst>
 </file>
@@ -240,24 +231,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="42.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="10" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="42.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="9" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -288,43 +278,31 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>128301</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
+      <c r="E2" s="1" t="n">
+        <v>8192391283</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>89233643321</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
